--- a/Income/VRTX_inc.xlsx
+++ b/Income/VRTX_inc.xlsx
@@ -2115,10 +2115,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.8806</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.8813</v>
@@ -2244,10 +2242,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.4704</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.46</v>
@@ -2373,10 +2369,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.5104</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.5021</v>
@@ -2502,10 +2496,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>0.4295</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.4366</v>
@@ -2631,10 +2623,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.4821</v>
@@ -2760,10 +2750,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>3159660000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>2983000000.0</v>
@@ -4254,10 +4242,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.4804</v>
@@ -4383,10 +4369,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B32" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0.5239</v>
